--- a/docentes/Martínez López Miguel Ángel - Estadisticos 2020.xlsx
+++ b/docentes/Martínez López Miguel Ángel - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
   <si>
     <t>Mat</t>
   </si>
@@ -71,6 +71,51 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>CIRUELO</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>ZACARIAS</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>MACUIXTLE</t>
+  </si>
+  <si>
+    <t>MANCILLA</t>
+  </si>
+  <si>
+    <t>PAZOS</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
+    <t>MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>CARLOS DANIEL</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>JOSUE SAMUEL</t>
+  </si>
+  <si>
+    <t>CARLA DANIELA</t>
   </si>
 </sst>
 </file>
@@ -474,19 +519,19 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>85.29000000000001</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="H2">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -500,10 +545,10 @@
         <v>28</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>3</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
       </c>
       <c r="F3">
         <v>25</v>
@@ -512,7 +557,7 @@
         <v>89.29000000000001</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -526,19 +571,19 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>82.14</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H4">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
     </row>
   </sheetData>
@@ -594,16 +639,19 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
         <v>29</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <v>85.29000000000001</v>
+      </c>
+      <c r="H2">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -617,16 +665,19 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>71.43000000000001</v>
+      </c>
+      <c r="H3">
+        <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -640,16 +691,19 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>60.71</v>
+      </c>
+      <c r="H4">
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -705,19 +759,19 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>85.29000000000001</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="H2">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -731,10 +785,10 @@
         <v>28</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>3</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
       </c>
       <c r="F3">
         <v>25</v>
@@ -743,7 +797,7 @@
         <v>89.29000000000001</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -757,19 +811,19 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>82.14</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H4">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +833,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -812,6 +866,190 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>18330051920446</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920446</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>18330051920391</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330051920085</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>18330051920103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>18330051920189</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Martínez López Miguel Ángel - Estadisticos 2020.xlsx
+++ b/docentes/Martínez López Miguel Ángel - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <si>
     <t>Mat</t>
   </si>
@@ -82,10 +82,7 @@
     <t>ZACARIAS</t>
   </si>
   <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>MACUIXTLE</t>
+    <t>ZEPEDA</t>
   </si>
   <si>
     <t>MANCILLA</t>
@@ -97,7 +94,7 @@
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>IGNACIO</t>
+    <t>MORALES</t>
   </si>
   <si>
     <t>MARIA DEL CARMEN</t>
@@ -109,13 +106,7 @@
     <t>LUIS ALBERTO</t>
   </si>
   <si>
-    <t>JOSE MANUEL</t>
-  </si>
-  <si>
-    <t>JOSUE SAMUEL</t>
-  </si>
-  <si>
-    <t>CARLA DANIELA</t>
+    <t>NATHAEL</t>
   </si>
 </sst>
 </file>
@@ -665,16 +656,16 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>71.43000000000001</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="H3">
         <v>8.5</v>
@@ -691,19 +682,19 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>60.71</v>
+        <v>67.86</v>
       </c>
       <c r="H4">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +824,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -874,13 +865,13 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -897,13 +888,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -920,13 +911,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -943,13 +934,13 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -966,10 +957,10 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -983,16 +974,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920085</v>
+        <v>18330051920110</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1001,53 +992,7 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>18330051920103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>18330051920189</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Martínez López Miguel Ángel - Estadisticos 2020.xlsx
+++ b/docentes/Martínez López Miguel Ángel - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
   <si>
     <t>Mat</t>
   </si>
@@ -73,40 +73,40 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>ZACARIAS</t>
+  </si>
+  <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
     <t>CIRUELO</t>
   </si>
   <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>ZACARIAS</t>
-  </si>
-  <si>
-    <t>ZEPEDA</t>
+    <t>PAZOS</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
   </si>
   <si>
     <t>MANCILLA</t>
   </si>
   <si>
-    <t>PAZOS</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
+    <t>CARLOS DANIEL</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO</t>
+  </si>
+  <si>
+    <t>NATHAEL</t>
   </si>
   <si>
     <t>MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>CARLOS DANIEL</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO</t>
-  </si>
-  <si>
-    <t>NATHAEL</t>
   </si>
 </sst>
 </file>
@@ -656,19 +656,19 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>78.56999999999999</v>
+        <v>82.14</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -682,7 +682,7 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -694,7 +694,7 @@
         <v>67.86</v>
       </c>
       <c r="H4">
-        <v>8.4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +824,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -859,7 +859,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920446</v>
+        <v>18330051920190</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -871,7 +871,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920446</v>
+        <v>18330051920190</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -894,7 +894,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920190</v>
+        <v>18330051920391</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -928,19 +928,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920190</v>
+        <v>18330051920110</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -951,16 +951,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920391</v>
+        <v>18330051920446</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -969,30 +969,7 @@
         <v>11</v>
       </c>
       <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>18330051920110</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Martínez López Miguel Ángel - Estadisticos 2020.xlsx
+++ b/docentes/Martínez López Miguel Ángel - Estadisticos 2020.xlsx
@@ -871,7 +871,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -894,7 +894,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>

--- a/docentes/Martínez López Miguel Ángel - Estadisticos 2020.xlsx
+++ b/docentes/Martínez López Miguel Ángel - Estadisticos 2020.xlsx
@@ -871,7 +871,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -894,7 +894,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
